--- a/resources/ncaa_results.xlsx
+++ b/resources/ncaa_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clewe\ETL_project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C58BB97-A5EB-40CF-8007-8358A6849E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A222E-3B6C-4E81-8CE3-7D0EFC54AF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4660C596-8C8C-4255-82DE-ACCDD82B02D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
   <si>
     <t>Rk</t>
   </si>
@@ -161,9 +161,6 @@
     <t>J.J. Redick</t>
   </si>
   <si>
-    <t>Adam Morrison J.J. Redick</t>
-  </si>
-  <si>
     <t>Andrew Bogut</t>
   </si>
   <si>
@@ -495,6 +492,12 @@
   </si>
   <si>
     <t>1972-73</t>
+  </si>
+  <si>
+    <t>Wooden Award Co-Winner</t>
+  </si>
+  <si>
+    <t>Adam Morrison</t>
   </si>
 </sst>
 </file>
@@ -846,23 +849,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3D0FA1-398E-4B47-9379-DE0851A63B80}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,13 +884,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -896,12 +902,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -916,12 +922,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -936,12 +942,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -956,12 +962,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -976,12 +982,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -996,12 +1002,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1016,12 +1022,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1036,12 +1042,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1056,12 +1062,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1076,12 +1082,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1096,12 +1102,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1116,12 +1122,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1136,12 +1142,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1156,12 +1162,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1173,7 +1179,10 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1190,10 +1199,10 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,19 +1210,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,19 +1230,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,19 +1250,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,19 +1270,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,19 +1290,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>55</v>
       </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,19 +1310,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -1330,10 +1339,10 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,19 +1350,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,19 +1370,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,19 +1390,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,19 +1410,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,7 +1430,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1430,10 +1439,10 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,7 +1450,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -1450,10 +1459,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,7 +1470,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1470,10 +1479,10 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,19 +1490,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>74</v>
       </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,19 +1510,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
         <v>76</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,7 +1530,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -1530,10 +1539,10 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,19 +1550,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>80</v>
       </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1570,10 +1579,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
         <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,19 +1590,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
         <v>84</v>
-      </c>
-      <c r="F37" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,19 +1610,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" t="s">
-        <v>87</v>
-      </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1621,19 +1630,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
         <v>88</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>89</v>
       </c>
-      <c r="E39" t="s">
-        <v>90</v>
-      </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,19 +1650,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,19 +1670,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,7 +1690,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -1690,10 +1699,10 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
         <v>93</v>
-      </c>
-      <c r="F42" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,19 +1710,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,7 +1730,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1730,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
         <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,19 +1750,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
         <v>98</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>99</v>
       </c>
-      <c r="E45" t="s">
-        <v>100</v>
-      </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,16 +1770,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,16 +1787,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
         <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,16 +1804,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
         <v>104</v>
-      </c>
-      <c r="E48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,16 +1821,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
         <v>64</v>
       </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
